--- a/docs/L4_Semester_1_2023.xlsx
+++ b/docs/L4_Semester_1_2023.xlsx
@@ -1,26 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26914"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssu-my.sharepoint.com/personal/martin_reid_solent_ac_uk/Documents/solent_store/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{9FB6F3CB-2442-4644-9D32-44471EF802F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F566563B-9A6C-4ECA-8367-F2C8AF51C87C}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{9FB6F3CB-2442-4644-9D32-44471EF802F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFB1C537-5706-4680-9BE0-0D72AA832D63}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21705" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Level Comp Sept 23 Sem 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="139">
+  <si>
+    <t>List at 16.43 - 18/9/2023</t>
+  </si>
+  <si>
+    <t>COM411</t>
+  </si>
+  <si>
+    <t>COM412</t>
+  </si>
+  <si>
+    <t>COM416</t>
+  </si>
+  <si>
+    <t>COM421</t>
+  </si>
+  <si>
+    <t>COM413</t>
+  </si>
+  <si>
+    <t>COM411 Group Number</t>
+  </si>
+  <si>
+    <t>COM412 Group Number</t>
+  </si>
   <si>
     <t>., Anchal</t>
   </si>
@@ -28,6 +68,9 @@
     <t>BSc (Hons) Computer Systems and Networks Engineering FT 4 Year SEP</t>
   </si>
   <si>
+    <t>X</t>
+  </si>
+  <si>
     <t>Craciun, Ion</t>
   </si>
   <si>
@@ -40,6 +83,9 @@
     <t>., Nazia Khatun</t>
   </si>
   <si>
+    <t>GROUP 4/5 ????/</t>
+  </si>
+  <si>
     <t>Kooner, Kishan</t>
   </si>
   <si>
@@ -70,6 +116,12 @@
     <t>BSc (Hons) Computing FT 4 Year SEP</t>
   </si>
   <si>
+    <t>Group 2( Friday 9-11am)</t>
+  </si>
+  <si>
+    <t>Group 2 (Thurs 11-2pm)</t>
+  </si>
+  <si>
     <t>Pomalecka, August</t>
   </si>
   <si>
@@ -127,6 +179,12 @@
     <t>BSc (Hons) Cyber Security Management FT 4 Year SEP</t>
   </si>
   <si>
+    <t>Group 4 ( Thurs 11-1pm)</t>
+  </si>
+  <si>
+    <t>Group 4 (Friday3-6pm)</t>
+  </si>
+  <si>
     <t>Patel, Devan</t>
   </si>
   <si>
@@ -196,6 +254,12 @@
     <t>BSc (Hons) Software Engineering FT 4 Year SEP</t>
   </si>
   <si>
+    <t>Group 3 (Thurs 11-1pm)</t>
+  </si>
+  <si>
+    <t>Group 3 (Friday 12-3pm)</t>
+  </si>
+  <si>
     <t>Piwowarczyk, Damian</t>
   </si>
   <si>
@@ -286,9 +350,27 @@
     <t>Ajwad Islam</t>
   </si>
   <si>
+    <t>Software Engineer - Apprentice</t>
+  </si>
+  <si>
+    <t>n/a RPL</t>
+  </si>
+  <si>
+    <t>Tues 2-4 JM406 Mike</t>
+  </si>
+  <si>
+    <t>Group 1/BDAS (Tues 11-1pm)</t>
+  </si>
+  <si>
+    <t>Group APP only (Tues 2-4pm)</t>
+  </si>
+  <si>
     <t>Alexandre Tulodziecki</t>
   </si>
   <si>
+    <t>Tues 11-1 JM312 Darren</t>
+  </si>
+  <si>
     <t>Charles Clark</t>
   </si>
   <si>
@@ -337,6 +419,9 @@
     <t>Freddie Robinson</t>
   </si>
   <si>
+    <t>Network Engineer - Apprentice</t>
+  </si>
+  <si>
     <t>James Sanders</t>
   </si>
   <si>
@@ -346,50 +431,35 @@
     <t>Benjamin Ellis</t>
   </si>
   <si>
-    <t>Software Engineer - Apprentice</t>
-  </si>
-  <si>
-    <t>Network Engineer - Apprentice</t>
-  </si>
-  <si>
     <t>Cyber Security -Apprentice</t>
   </si>
   <si>
-    <t>COM411</t>
-  </si>
-  <si>
-    <t>COM412</t>
-  </si>
-  <si>
-    <t>n/a RPL</t>
-  </si>
-  <si>
-    <t>Tues 11-1 JM312 Darren</t>
-  </si>
-  <si>
-    <t>Tues 2-4 JM406 Mike</t>
-  </si>
-  <si>
-    <t>List at 16.43 - 18/9/2023</t>
-  </si>
-  <si>
-    <t>COM416</t>
-  </si>
-  <si>
-    <t>COM421</t>
-  </si>
-  <si>
-    <t>COM413</t>
-  </si>
-  <si>
-    <t>X</t>
+    <t>Missing modules for these L4 students SOFTWARE ENGINEERING:</t>
+  </si>
+  <si>
+    <t>Nishan Gurung - Software Engineering L4 - no modules</t>
+  </si>
+  <si>
+    <t>Akib Ahmed - Software Engineering L4 - no modules</t>
+  </si>
+  <si>
+    <t>Roxanne Harvey - Software Engineering L4 - missing COM411 - please add to Thurs 11-1am - on Martin's list</t>
+  </si>
+  <si>
+    <t>Angus Jones - Software Engineering L4 - no modules</t>
+  </si>
+  <si>
+    <t>John Paul Ndukuba - Software Engineering L4 - no mudules - on Martin's list</t>
+  </si>
+  <si>
+    <t>Zaoro Kpohomouh -  Software Engineering L4- no modules</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,7 +639,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -794,6 +864,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,7 +1241,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1301,12 +1377,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="37" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1317,17 +1387,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1336,9 +1400,6 @@
     <xf numFmtId="0" fontId="23" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1350,12 +1411,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1420,6 +1475,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1469,8 +1552,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9999"/>
       <color rgb="FF73FEFF"/>
-      <color rgb="FFFF9999"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1781,48 +1864,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="3" max="3" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="95.42578125" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="79.28515625" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
     <col min="8" max="9" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="30.85546875" customWidth="1"/>
+    <col min="13" max="13" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="85" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" s="86" t="s">
-        <v>112</v>
-      </c>
-      <c r="H1" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1" s="85" t="s">
-        <v>118</v>
-      </c>
-      <c r="J1" s="85" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
+      <c r="A1" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1830,25 +1922,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D2" s="49">
         <v>102100844</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="87"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="89" t="s">
-        <v>120</v>
-      </c>
-      <c r="I2" s="89" t="s">
-        <v>120</v>
-      </c>
-      <c r="J2" s="90"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F2" s="80"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="83"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1856,25 +1948,25 @@
         <v>2</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D3" s="53">
         <v>16263669</v>
       </c>
       <c r="E3" s="54" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F3" s="45"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="I3" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="J3" s="91"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G3" s="64"/>
+      <c r="H3" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="84"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1882,25 +1974,25 @@
         <v>3</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D4" s="53">
         <v>102026898</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F4" s="45"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="I4" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="J4" s="91"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G4" s="64"/>
+      <c r="H4" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="84"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1908,25 +2000,25 @@
         <v>4</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D5" s="53">
         <v>16060156</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F5" s="45"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="I5" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="J5" s="91"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G5" s="64"/>
+      <c r="H5" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="84"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1934,25 +2026,31 @@
         <v>5</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D6" s="53">
         <v>102116971</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F6" s="45"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="I6" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="J6" s="91"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G6" s="64"/>
+      <c r="H6" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="84"/>
+      <c r="L6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -1960,25 +2058,25 @@
         <v>6</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D7" s="53">
         <v>102021169</v>
       </c>
       <c r="E7" s="54" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F7" s="45"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="I7" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="J7" s="91"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G7" s="64"/>
+      <c r="H7" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="84"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -1986,25 +2084,25 @@
         <v>7</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D8" s="53">
         <v>16463447</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F8" s="45"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="I8" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="J8" s="91"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G8" s="64"/>
+      <c r="H8" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="84"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -2012,25 +2110,25 @@
         <v>8</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D9" s="53">
         <v>16320361</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F9" s="45"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="I9" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="J9" s="91"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G9" s="64"/>
+      <c r="H9" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="84"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -2038,25 +2136,25 @@
         <v>9</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D10" s="53">
         <v>15437272</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F10" s="45"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="I10" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="J10" s="91"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G10" s="64"/>
+      <c r="H10" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="84"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -2064,25 +2162,25 @@
         <v>10</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D11" s="53">
         <v>16021665</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F11" s="45"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="I11" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="J11" s="91"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G11" s="64"/>
+      <c r="H11" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="84"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -2090,25 +2188,25 @@
         <v>11</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D12" s="53">
         <v>102020081</v>
       </c>
       <c r="E12" s="54" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F12" s="45"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="I12" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="J12" s="91"/>
-    </row>
-    <row r="13" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="64"/>
+      <c r="H12" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="84"/>
+    </row>
+    <row r="13" spans="1:13" ht="16.5" thickBot="1">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -2116,25 +2214,25 @@
         <v>12</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D13" s="57">
         <v>16067801</v>
       </c>
       <c r="E13" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="92"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="I13" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="J13" s="95"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F13" s="85"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="88"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -2142,23 +2240,29 @@
         <v>1</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D14" s="61">
         <v>102117392</v>
       </c>
       <c r="E14" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="87"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="97" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="F14" s="80"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="110" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -2166,23 +2270,29 @@
         <v>2</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D15" s="33">
         <v>102008090</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F15" s="45"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="98" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G15" s="64"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="110" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -2190,23 +2300,29 @@
         <v>3</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D16" s="33">
         <v>102127184</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F16" s="45"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="98" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G16" s="64"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="110" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -2214,23 +2330,29 @@
         <v>4</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D17" s="33">
         <v>15843076</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F17" s="45"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="98" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G17" s="64"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="110" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -2238,23 +2360,29 @@
         <v>5</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D18" s="33">
         <v>102121562</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F18" s="45"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="98" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G18" s="64"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="110" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -2262,23 +2390,29 @@
         <v>6</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D19" s="33">
         <v>102049624</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F19" s="45"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="98" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G19" s="64"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" s="110" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -2286,23 +2420,29 @@
         <v>7</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D20" s="33">
         <v>16290763</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F20" s="45"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="98" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G20" s="64"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="110" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -2310,23 +2450,29 @@
         <v>8</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D21" s="33">
         <v>16377095</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F21" s="45"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="98" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G21" s="64"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" s="110" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -2334,23 +2480,29 @@
         <v>9</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D22" s="33">
         <v>102077432</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F22" s="45"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="98" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G22" s="64"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" s="110" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -2358,23 +2510,29 @@
         <v>10</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D23" s="33">
         <v>102092952</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F23" s="45"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="98" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G23" s="64"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" s="110" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -2382,23 +2540,29 @@
         <v>11</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D24" s="33">
         <v>102102457</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F24" s="45"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="98" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G24" s="64"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" s="110" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -2406,23 +2570,29 @@
         <v>12</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D25" s="33">
         <v>102094222</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F25" s="45"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="98" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G25" s="64"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25" s="110" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -2430,23 +2600,29 @@
         <v>13</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D26" s="33">
         <v>15886310</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F26" s="45"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="98" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G26" s="64"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26" s="110" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -2454,23 +2630,29 @@
         <v>14</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D27" s="33">
         <v>16333489</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F27" s="45"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="98" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G27" s="64"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="110" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75">
       <c r="A28" s="13">
         <v>27</v>
       </c>
@@ -2478,23 +2660,29 @@
         <v>15</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D28" s="33">
         <v>102060146</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F28" s="45"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="98" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G28" s="64"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28" s="110" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -2502,23 +2690,29 @@
         <v>16</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D29" s="33">
         <v>102017379</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F29" s="45"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="98" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="64"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29" s="110" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="16.5" thickBot="1">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -2526,23 +2720,29 @@
         <v>17</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D30" s="34">
         <v>102019258</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="92"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="100" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="F30" s="85"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" s="110" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.75">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -2550,25 +2750,31 @@
         <v>1</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D31" s="35">
         <v>16335201</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" s="87"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="89" t="s">
-        <v>120</v>
-      </c>
-      <c r="I31" s="89" t="s">
-        <v>120</v>
-      </c>
-      <c r="J31" s="90"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="F31" s="80"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="83"/>
+      <c r="L31" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="M31" s="112" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.75">
       <c r="A32" s="13">
         <v>31</v>
       </c>
@@ -2576,25 +2782,31 @@
         <v>2</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D32" s="36">
         <v>16045106</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F32" s="45"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="I32" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="J32" s="91"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G32" s="64"/>
+      <c r="H32" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" s="84"/>
+      <c r="L32" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="M32" s="112" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15.75">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -2602,25 +2814,31 @@
         <v>3</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D33" s="36">
         <v>16068661</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F33" s="45"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="I33" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="J33" s="91"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G33" s="64"/>
+      <c r="H33" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="84"/>
+      <c r="L33" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="M33" s="112" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15.75">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -2628,25 +2846,31 @@
         <v>4</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D34" s="36">
         <v>16054547</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F34" s="45"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="I34" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="J34" s="91"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G34" s="64"/>
+      <c r="H34" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" s="84"/>
+      <c r="L34" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="M34" s="112" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15.75">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -2654,25 +2878,31 @@
         <v>5</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D35" s="36">
         <v>102048672</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F35" s="45"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="I35" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="J35" s="91"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G35" s="64"/>
+      <c r="H35" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" s="84"/>
+      <c r="L35" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="M35" s="112" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15.75">
       <c r="A36" s="13">
         <v>35</v>
       </c>
@@ -2680,25 +2910,31 @@
         <v>6</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D36" s="36">
         <v>15860710</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F36" s="45"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="I36" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="J36" s="91"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G36" s="64"/>
+      <c r="H36" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" s="84"/>
+      <c r="L36" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="M36" s="112" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15.75">
       <c r="A37" s="13">
         <v>36</v>
       </c>
@@ -2706,25 +2942,31 @@
         <v>7</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D37" s="36">
         <v>102137493</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F37" s="45"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="I37" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="J37" s="91"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G37" s="64"/>
+      <c r="H37" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" s="84"/>
+      <c r="L37" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="M37" s="112" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15.75">
       <c r="A38" s="13">
         <v>37</v>
       </c>
@@ -2732,25 +2974,31 @@
         <v>8</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D38" s="36">
         <v>15866556</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F38" s="45"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="I38" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="J38" s="91"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G38" s="64"/>
+      <c r="H38" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" s="84"/>
+      <c r="L38" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="M38" s="112" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15.75">
       <c r="A39" s="13">
         <v>38</v>
       </c>
@@ -2758,25 +3006,31 @@
         <v>9</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D39" s="36">
         <v>15636003</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F39" s="45"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="I39" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="J39" s="91"/>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G39" s="64"/>
+      <c r="H39" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" s="84"/>
+      <c r="L39" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="M39" s="112" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15.75">
       <c r="A40" s="13">
         <v>39</v>
       </c>
@@ -2784,25 +3038,31 @@
         <v>10</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D40" s="36">
         <v>102049646</v>
       </c>
       <c r="E40" s="42" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F40" s="45"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="I40" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="J40" s="91"/>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G40" s="64"/>
+      <c r="H40" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J40" s="84"/>
+      <c r="L40" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="M40" s="112" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15.75">
       <c r="A41" s="13">
         <v>40</v>
       </c>
@@ -2810,25 +3070,31 @@
         <v>11</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D41" s="36">
         <v>16072511</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F41" s="45"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="I41" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="J41" s="91"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G41" s="64"/>
+      <c r="H41" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41" s="84"/>
+      <c r="L41" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="M41" s="112" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15.75">
       <c r="A42" s="13">
         <v>41</v>
       </c>
@@ -2836,25 +3102,31 @@
         <v>12</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D42" s="36">
         <v>102128675</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F42" s="45"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="I42" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="J42" s="91"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G42" s="64"/>
+      <c r="H42" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" s="84"/>
+      <c r="L42" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="M42" s="112" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15.75">
       <c r="A43" s="13">
         <v>42</v>
       </c>
@@ -2862,25 +3134,31 @@
         <v>13</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D43" s="36">
         <v>16305817</v>
       </c>
       <c r="E43" s="42" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F43" s="45"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="I43" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="J43" s="91"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G43" s="64"/>
+      <c r="H43" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J43" s="84"/>
+      <c r="L43" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="M43" s="112" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15.75">
       <c r="A44" s="13">
         <v>43</v>
       </c>
@@ -2888,25 +3166,31 @@
         <v>14</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D44" s="36">
         <v>16286294</v>
       </c>
       <c r="E44" s="42" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F44" s="45"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="I44" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="J44" s="91"/>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G44" s="64"/>
+      <c r="H44" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J44" s="84"/>
+      <c r="L44" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="M44" s="112" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15.75">
       <c r="A45" s="13">
         <v>44</v>
       </c>
@@ -2914,25 +3198,31 @@
         <v>15</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D45" s="36">
         <v>15869687</v>
       </c>
       <c r="E45" s="42" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F45" s="45"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="I45" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="J45" s="91"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G45" s="64"/>
+      <c r="H45" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45" s="84"/>
+      <c r="L45" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="M45" s="112" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15.75">
       <c r="A46" s="13">
         <v>45</v>
       </c>
@@ -2940,25 +3230,31 @@
         <v>16</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D46" s="36">
         <v>102021505</v>
       </c>
       <c r="E46" s="42" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F46" s="45"/>
-      <c r="G46" s="66"/>
-      <c r="H46" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="I46" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="J46" s="91"/>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G46" s="64"/>
+      <c r="H46" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J46" s="84"/>
+      <c r="L46" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="M46" s="112" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15.75">
       <c r="A47" s="13">
         <v>46</v>
       </c>
@@ -2966,25 +3262,31 @@
         <v>17</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D47" s="36">
         <v>102030231</v>
       </c>
       <c r="E47" s="42" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F47" s="45"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="I47" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="J47" s="91"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G47" s="64"/>
+      <c r="H47" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" s="84"/>
+      <c r="L47" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="M47" s="112" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15.75">
       <c r="A48" s="13">
         <v>47</v>
       </c>
@@ -2992,25 +3294,31 @@
         <v>18</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D48" s="36">
         <v>15983471</v>
       </c>
       <c r="E48" s="42" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F48" s="45"/>
-      <c r="G48" s="66"/>
-      <c r="H48" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="I48" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="J48" s="91"/>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G48" s="64"/>
+      <c r="H48" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J48" s="84"/>
+      <c r="L48" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="M48" s="112" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="15.75">
       <c r="A49" s="13">
         <v>48</v>
       </c>
@@ -3018,25 +3326,31 @@
         <v>19</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D49" s="36">
         <v>16028252</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F49" s="45"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="I49" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="J49" s="91"/>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G49" s="64"/>
+      <c r="H49" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J49" s="84"/>
+      <c r="L49" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="M49" s="112" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="15.75">
       <c r="A50" s="13">
         <v>49</v>
       </c>
@@ -3044,25 +3358,31 @@
         <v>20</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D50" s="36">
         <v>16069803</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F50" s="45"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="I50" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="J50" s="91"/>
-    </row>
-    <row r="51" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G50" s="64"/>
+      <c r="H50" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I50" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J50" s="84"/>
+      <c r="L50" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="M50" s="112" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="16.5" thickBot="1">
       <c r="A51" s="13">
         <v>50</v>
       </c>
@@ -3070,663 +3390,843 @@
         <v>21</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D51" s="37">
         <v>101500177</v>
       </c>
       <c r="E51" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="F51" s="92"/>
-      <c r="G51" s="93"/>
-      <c r="H51" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="I51" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="J51" s="95"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="F51" s="85"/>
+      <c r="G51" s="86"/>
+      <c r="H51" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="J51" s="88"/>
+      <c r="L51" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="M51" s="112" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="15.75">
       <c r="A52" s="13">
         <v>51</v>
       </c>
-      <c r="B52" s="101">
+      <c r="B52" s="94">
         <v>1</v>
       </c>
-      <c r="C52" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="D52" s="103">
+      <c r="C52" s="95" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="96">
         <v>102047217</v>
       </c>
-      <c r="E52" s="104" t="s">
-        <v>57</v>
-      </c>
-      <c r="F52" s="87"/>
-      <c r="G52" s="88"/>
-      <c r="H52" s="96"/>
-      <c r="I52" s="96"/>
-      <c r="J52" s="90"/>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E52" s="97" t="s">
+        <v>71</v>
+      </c>
+      <c r="F52" s="80"/>
+      <c r="G52" s="81"/>
+      <c r="H52" s="89"/>
+      <c r="I52" s="89"/>
+      <c r="J52" s="83"/>
+      <c r="L52" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="M52" s="111" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="15.75">
       <c r="A53" s="13">
         <v>52</v>
       </c>
-      <c r="B53" s="105">
+      <c r="B53" s="98">
         <v>2</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D53" s="31">
         <v>16277317</v>
       </c>
       <c r="E53" s="44" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F53" s="45"/>
-      <c r="G53" s="66"/>
-      <c r="H53" s="68"/>
-      <c r="I53" s="68"/>
-      <c r="J53" s="91"/>
-    </row>
-    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G53" s="64"/>
+      <c r="H53" s="66"/>
+      <c r="I53" s="66"/>
+      <c r="J53" s="84"/>
+      <c r="L53" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="M53" s="111" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="15.75">
       <c r="A54" s="13">
         <v>53</v>
       </c>
-      <c r="B54" s="105">
+      <c r="B54" s="98">
         <v>3</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D54" s="31">
         <v>16280156</v>
       </c>
       <c r="E54" s="44" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F54" s="45"/>
-      <c r="G54" s="66"/>
-      <c r="H54" s="68"/>
-      <c r="I54" s="68"/>
-      <c r="J54" s="91"/>
-    </row>
-    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G54" s="64"/>
+      <c r="H54" s="66"/>
+      <c r="I54" s="66"/>
+      <c r="J54" s="84"/>
+      <c r="L54" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="M54" s="111" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="15.75">
       <c r="A55" s="13">
         <v>54</v>
       </c>
-      <c r="B55" s="105">
+      <c r="B55" s="98">
         <v>4</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D55" s="31">
         <v>16466098</v>
       </c>
       <c r="E55" s="44" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F55" s="45"/>
-      <c r="G55" s="66"/>
-      <c r="H55" s="68"/>
-      <c r="I55" s="68"/>
-      <c r="J55" s="91"/>
-    </row>
-    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G55" s="64"/>
+      <c r="H55" s="66"/>
+      <c r="I55" s="66"/>
+      <c r="J55" s="84"/>
+      <c r="L55" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="M55" s="111" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="15.75">
       <c r="A56" s="13">
         <v>55</v>
       </c>
-      <c r="B56" s="105">
+      <c r="B56" s="98">
         <v>5</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D56" s="31">
         <v>16218761</v>
       </c>
       <c r="E56" s="44" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F56" s="45"/>
-      <c r="G56" s="66"/>
-      <c r="H56" s="68"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="91"/>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G56" s="64"/>
+      <c r="H56" s="66"/>
+      <c r="I56" s="66"/>
+      <c r="J56" s="84"/>
+      <c r="L56" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="M56" s="111" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="15.75">
       <c r="A57" s="13">
         <v>56</v>
       </c>
-      <c r="B57" s="105">
+      <c r="B57" s="98">
         <v>6</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D57" s="31">
         <v>16463307</v>
       </c>
       <c r="E57" s="44" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F57" s="45"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="91"/>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G57" s="64"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="66"/>
+      <c r="J57" s="84"/>
+      <c r="L57" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="M57" s="111" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="15.75">
       <c r="A58" s="13">
         <v>57</v>
       </c>
-      <c r="B58" s="105">
+      <c r="B58" s="98">
         <v>7</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D58" s="31">
         <v>16463315</v>
       </c>
       <c r="E58" s="44" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F58" s="45"/>
-      <c r="G58" s="66"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="91"/>
-    </row>
-    <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G58" s="64"/>
+      <c r="H58" s="66"/>
+      <c r="I58" s="66"/>
+      <c r="J58" s="84"/>
+      <c r="L58" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="M58" s="111" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="15.75">
       <c r="A59" s="13">
         <v>58</v>
       </c>
-      <c r="B59" s="105">
+      <c r="B59" s="98">
         <v>8</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D59" s="31">
         <v>16031377</v>
       </c>
       <c r="E59" s="44" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F59" s="45"/>
-      <c r="G59" s="66"/>
-      <c r="H59" s="68"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="91"/>
-    </row>
-    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G59" s="64"/>
+      <c r="H59" s="66"/>
+      <c r="I59" s="66"/>
+      <c r="J59" s="84"/>
+      <c r="L59" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="M59" s="111" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="15.75">
       <c r="A60" s="13">
         <v>59</v>
       </c>
-      <c r="B60" s="105">
+      <c r="B60" s="98">
         <v>9</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D60" s="31">
         <v>16042875</v>
       </c>
       <c r="E60" s="44" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F60" s="45"/>
-      <c r="G60" s="66"/>
-      <c r="H60" s="68"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="91"/>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G60" s="64"/>
+      <c r="H60" s="66"/>
+      <c r="I60" s="66"/>
+      <c r="J60" s="84"/>
+      <c r="L60" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="M60" s="111" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="15.75">
       <c r="A61" s="13">
         <v>60</v>
       </c>
-      <c r="B61" s="105">
+      <c r="B61" s="98">
         <v>10</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D61" s="31">
         <v>16254678</v>
       </c>
       <c r="E61" s="44" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F61" s="45"/>
-      <c r="G61" s="66"/>
-      <c r="H61" s="68"/>
-      <c r="I61" s="68"/>
-      <c r="J61" s="91"/>
-    </row>
-    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G61" s="64"/>
+      <c r="H61" s="66"/>
+      <c r="I61" s="66"/>
+      <c r="J61" s="84"/>
+      <c r="L61" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="M61" s="111" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="15.75">
       <c r="A62" s="13">
         <v>61</v>
       </c>
-      <c r="B62" s="105">
+      <c r="B62" s="98">
         <v>11</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D62" s="31">
         <v>16047044</v>
       </c>
       <c r="E62" s="44" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F62" s="45"/>
-      <c r="G62" s="66"/>
-      <c r="H62" s="68"/>
-      <c r="I62" s="68"/>
-      <c r="J62" s="91"/>
-    </row>
-    <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G62" s="64"/>
+      <c r="H62" s="66"/>
+      <c r="I62" s="66"/>
+      <c r="J62" s="84"/>
+      <c r="L62" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="M62" s="111" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="15.75">
       <c r="A63" s="13">
         <v>62</v>
       </c>
-      <c r="B63" s="105">
+      <c r="B63" s="98">
         <v>12</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D63" s="31">
         <v>102073858</v>
       </c>
       <c r="E63" s="44" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F63" s="45"/>
-      <c r="G63" s="66"/>
-      <c r="H63" s="68"/>
-      <c r="I63" s="68"/>
-      <c r="J63" s="91"/>
-    </row>
-    <row r="64" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G63" s="64"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="66"/>
+      <c r="J63" s="84"/>
+      <c r="L63" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="M63" s="111" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="15.75">
       <c r="A64" s="13">
         <v>63</v>
       </c>
-      <c r="B64" s="105">
+      <c r="B64" s="98">
         <v>13</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D64" s="31">
         <v>102136832</v>
       </c>
       <c r="E64" s="44" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F64" s="45"/>
-      <c r="G64" s="66"/>
-      <c r="H64" s="68"/>
-      <c r="I64" s="68"/>
-      <c r="J64" s="91"/>
-    </row>
-    <row r="65" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G64" s="64"/>
+      <c r="H64" s="66"/>
+      <c r="I64" s="66"/>
+      <c r="J64" s="84"/>
+      <c r="L64" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="M64" s="111" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15.75">
       <c r="A65" s="13">
         <v>64</v>
       </c>
-      <c r="B65" s="105">
+      <c r="B65" s="98">
         <v>14</v>
       </c>
       <c r="C65" s="32" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D65" s="31">
         <v>16463455</v>
       </c>
       <c r="E65" s="44" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F65" s="45"/>
-      <c r="G65" s="66"/>
-      <c r="H65" s="68"/>
-      <c r="I65" s="68"/>
-      <c r="J65" s="91"/>
-    </row>
-    <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G65" s="64"/>
+      <c r="H65" s="66"/>
+      <c r="I65" s="66"/>
+      <c r="J65" s="84"/>
+      <c r="L65" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="M65" s="111" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="15.75">
       <c r="A66" s="13">
         <v>65</v>
       </c>
-      <c r="B66" s="105">
+      <c r="B66" s="98">
         <v>15</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D66" s="31">
         <v>16076257</v>
       </c>
       <c r="E66" s="44" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F66" s="45"/>
-      <c r="G66" s="66"/>
-      <c r="H66" s="68"/>
-      <c r="I66" s="68"/>
-      <c r="J66" s="91"/>
-    </row>
-    <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G66" s="64"/>
+      <c r="H66" s="66"/>
+      <c r="I66" s="66"/>
+      <c r="J66" s="84"/>
+      <c r="L66" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="M66" s="111" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="15.75">
       <c r="A67" s="13">
         <v>66</v>
       </c>
-      <c r="B67" s="105">
+      <c r="B67" s="98">
         <v>16</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D67" s="31">
         <v>16255577</v>
       </c>
       <c r="E67" s="44" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F67" s="45"/>
-      <c r="G67" s="66"/>
-      <c r="H67" s="68"/>
-      <c r="I67" s="68"/>
-      <c r="J67" s="91"/>
-    </row>
-    <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G67" s="64"/>
+      <c r="H67" s="66"/>
+      <c r="I67" s="66"/>
+      <c r="J67" s="84"/>
+      <c r="L67" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="M67" s="111" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="15.75">
       <c r="A68" s="13">
         <v>67</v>
       </c>
-      <c r="B68" s="105">
+      <c r="B68" s="98">
         <v>17</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D68" s="31">
         <v>16255798</v>
       </c>
       <c r="E68" s="44" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F68" s="45"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="68"/>
-      <c r="I68" s="68"/>
-      <c r="J68" s="91"/>
-    </row>
-    <row r="69" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G68" s="64"/>
+      <c r="H68" s="66"/>
+      <c r="I68" s="66"/>
+      <c r="J68" s="84"/>
+      <c r="L68" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="M68" s="111" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="15.75">
       <c r="A69" s="13">
         <v>68</v>
       </c>
-      <c r="B69" s="105">
+      <c r="B69" s="98">
         <v>18</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D69" s="31">
         <v>102096927</v>
       </c>
       <c r="E69" s="44" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F69" s="45"/>
-      <c r="G69" s="66"/>
-      <c r="H69" s="68"/>
-      <c r="I69" s="68"/>
-      <c r="J69" s="91"/>
-    </row>
-    <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G69" s="64"/>
+      <c r="H69" s="66"/>
+      <c r="I69" s="66"/>
+      <c r="J69" s="84"/>
+      <c r="L69" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="M69" s="111" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="15.75">
       <c r="A70" s="13">
         <v>69</v>
       </c>
-      <c r="B70" s="105">
+      <c r="B70" s="98">
         <v>19</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D70" s="31">
         <v>16302419</v>
       </c>
       <c r="E70" s="44" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F70" s="45"/>
-      <c r="G70" s="66"/>
-      <c r="H70" s="68"/>
-      <c r="I70" s="68"/>
-      <c r="J70" s="91"/>
-    </row>
-    <row r="71" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G70" s="64"/>
+      <c r="H70" s="66"/>
+      <c r="I70" s="66"/>
+      <c r="J70" s="84"/>
+      <c r="L70" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="M70" s="111" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="15.75">
       <c r="A71" s="13">
         <v>70</v>
       </c>
-      <c r="B71" s="105">
+      <c r="B71" s="98">
         <v>20</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D71" s="31">
         <v>102033483</v>
       </c>
       <c r="E71" s="44" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F71" s="45"/>
-      <c r="G71" s="66"/>
-      <c r="H71" s="68"/>
-      <c r="I71" s="68"/>
-      <c r="J71" s="91"/>
-    </row>
-    <row r="72" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G71" s="64"/>
+      <c r="H71" s="66"/>
+      <c r="I71" s="66"/>
+      <c r="J71" s="84"/>
+      <c r="L71" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="M71" s="111" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="15.75">
       <c r="A72" s="13">
         <v>71</v>
       </c>
-      <c r="B72" s="105">
+      <c r="B72" s="98">
         <v>21</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D72" s="31">
         <v>102021907</v>
       </c>
       <c r="E72" s="44" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F72" s="45"/>
-      <c r="G72" s="66"/>
-      <c r="H72" s="68"/>
-      <c r="I72" s="68"/>
-      <c r="J72" s="91"/>
-    </row>
-    <row r="73" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G72" s="64"/>
+      <c r="H72" s="66"/>
+      <c r="I72" s="66"/>
+      <c r="J72" s="84"/>
+      <c r="L72" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="M72" s="111" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="15.75">
       <c r="A73" s="13">
         <v>72</v>
       </c>
-      <c r="B73" s="105">
+      <c r="B73" s="98">
         <v>22</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D73" s="31">
         <v>16333322</v>
       </c>
       <c r="E73" s="44" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F73" s="45"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="68"/>
-      <c r="I73" s="68"/>
-      <c r="J73" s="91"/>
-    </row>
-    <row r="74" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G73" s="64"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="66"/>
+      <c r="J73" s="84"/>
+      <c r="L73" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="M73" s="111" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="15.75">
       <c r="A74" s="13">
         <v>73</v>
       </c>
-      <c r="B74" s="105">
+      <c r="B74" s="98">
         <v>23</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D74" s="31">
         <v>102040986</v>
       </c>
       <c r="E74" s="44" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F74" s="45"/>
-      <c r="G74" s="66"/>
-      <c r="H74" s="68"/>
-      <c r="I74" s="68"/>
-      <c r="J74" s="91"/>
-    </row>
-    <row r="75" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G74" s="64"/>
+      <c r="H74" s="66"/>
+      <c r="I74" s="66"/>
+      <c r="J74" s="84"/>
+      <c r="L74" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="M74" s="111" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="15.75">
       <c r="A75" s="13">
         <v>74</v>
       </c>
-      <c r="B75" s="105">
+      <c r="B75" s="98">
         <v>24</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D75" s="31">
         <v>102114841</v>
       </c>
       <c r="E75" s="44" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F75" s="45"/>
-      <c r="G75" s="66"/>
-      <c r="H75" s="68"/>
-      <c r="I75" s="68"/>
-      <c r="J75" s="91"/>
-    </row>
-    <row r="76" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G75" s="64"/>
+      <c r="H75" s="66"/>
+      <c r="I75" s="66"/>
+      <c r="J75" s="84"/>
+      <c r="L75" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="M75" s="111" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="15.75">
       <c r="A76" s="13">
         <v>75</v>
       </c>
-      <c r="B76" s="105">
+      <c r="B76" s="98">
         <v>25</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D76" s="31">
         <v>102069998</v>
       </c>
       <c r="E76" s="44" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F76" s="45"/>
-      <c r="G76" s="66"/>
-      <c r="H76" s="68"/>
-      <c r="I76" s="68"/>
-      <c r="J76" s="91"/>
-    </row>
-    <row r="77" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G76" s="64"/>
+      <c r="H76" s="66"/>
+      <c r="I76" s="66"/>
+      <c r="J76" s="84"/>
+      <c r="L76" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="M76" s="111" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="15.75">
       <c r="A77" s="13">
         <v>76</v>
       </c>
-      <c r="B77" s="105">
+      <c r="B77" s="98">
         <v>26</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D77" s="31">
         <v>102041798</v>
       </c>
       <c r="E77" s="44" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F77" s="45"/>
-      <c r="G77" s="66"/>
-      <c r="H77" s="68"/>
-      <c r="I77" s="68"/>
-      <c r="J77" s="91"/>
-    </row>
-    <row r="78" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G77" s="64"/>
+      <c r="H77" s="66"/>
+      <c r="I77" s="66"/>
+      <c r="J77" s="84"/>
+      <c r="L77" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="M77" s="111" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="15.75">
       <c r="A78" s="13">
         <v>77</v>
       </c>
-      <c r="B78" s="105">
+      <c r="B78" s="98">
         <v>27</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D78" s="31">
         <v>102011768</v>
       </c>
       <c r="E78" s="44" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="F78" s="45"/>
-      <c r="G78" s="66"/>
-      <c r="H78" s="68"/>
-      <c r="I78" s="68"/>
-      <c r="J78" s="91"/>
-    </row>
-    <row r="79" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G78" s="64"/>
+      <c r="H78" s="66"/>
+      <c r="I78" s="66"/>
+      <c r="J78" s="84"/>
+      <c r="L78" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="M78" s="111" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="15.75">
       <c r="A79" s="13">
         <v>78</v>
       </c>
-      <c r="B79" s="105">
+      <c r="B79" s="98">
         <v>28</v>
       </c>
       <c r="C79" s="32" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D79" s="31">
         <v>102024366</v>
       </c>
       <c r="E79" s="44" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="F79" s="45"/>
-      <c r="G79" s="66"/>
-      <c r="H79" s="68"/>
-      <c r="I79" s="68"/>
-      <c r="J79" s="91"/>
-    </row>
-    <row r="80" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G79" s="64"/>
+      <c r="H79" s="66"/>
+      <c r="I79" s="66"/>
+      <c r="J79" s="84"/>
+      <c r="L79" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="M79" s="111" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="16.5" thickBot="1">
       <c r="A80" s="13">
         <v>79</v>
       </c>
-      <c r="B80" s="106">
+      <c r="B80" s="99">
         <v>29</v>
       </c>
-      <c r="C80" s="107" t="s">
-        <v>86</v>
-      </c>
-      <c r="D80" s="108">
+      <c r="C80" s="100" t="s">
+        <v>102</v>
+      </c>
+      <c r="D80" s="101">
         <v>102150078</v>
       </c>
-      <c r="E80" s="109" t="s">
-        <v>84</v>
-      </c>
-      <c r="F80" s="92"/>
-      <c r="G80" s="93"/>
-      <c r="H80" s="99"/>
-      <c r="I80" s="99"/>
-      <c r="J80" s="95"/>
-    </row>
-    <row r="81" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E80" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="F80" s="85"/>
+      <c r="G80" s="86"/>
+      <c r="H80" s="92"/>
+      <c r="I80" s="92"/>
+      <c r="J80" s="88"/>
+      <c r="L80" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="M80" s="111" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="15.75">
       <c r="A81" s="13">
         <v>80</v>
       </c>
@@ -3734,29 +4234,35 @@
         <v>1</v>
       </c>
       <c r="C81" s="46" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="D81" s="15"/>
-      <c r="E81" s="74" t="s">
+      <c r="E81" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="F81" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="G81" s="106" t="s">
+        <v>106</v>
+      </c>
+      <c r="H81" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="I81" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="J81" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="L81" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="M81" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="F81" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="G81" s="76" t="s">
-        <v>115</v>
-      </c>
-      <c r="H81" s="77" t="s">
-        <v>120</v>
-      </c>
-      <c r="I81" s="77" t="s">
-        <v>120</v>
-      </c>
-      <c r="J81" s="78" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:13" ht="15.75">
       <c r="A82" s="13">
         <v>81</v>
       </c>
@@ -3764,29 +4270,35 @@
         <v>2</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="D82" s="7">
         <v>4125649854</v>
       </c>
       <c r="E82" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F82" s="103" t="s">
+        <v>110</v>
+      </c>
+      <c r="G82" s="103"/>
+      <c r="H82" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="I82" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="J82" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="L82" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="M82" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="F82" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="G82" s="69"/>
-      <c r="H82" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="I82" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="J82" s="79" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:13" ht="15.75">
       <c r="A83" s="13">
         <v>82</v>
       </c>
@@ -3794,27 +4306,33 @@
         <v>3</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="D83" s="6">
         <v>6544973911</v>
       </c>
       <c r="E83" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F83" s="103"/>
+      <c r="G83" s="103"/>
+      <c r="H83" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="I83" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="J83" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="L83" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="M83" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="F83" s="69"/>
-      <c r="G83" s="69"/>
-      <c r="H83" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="I83" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="J83" s="79" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:13" ht="15.75">
       <c r="A84" s="13">
         <v>83</v>
       </c>
@@ -3822,27 +4340,33 @@
         <v>4</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="D84" s="6">
         <v>7035907113</v>
       </c>
       <c r="E84" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F84" s="103"/>
+      <c r="G84" s="103"/>
+      <c r="H84" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="I84" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="J84" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="L84" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="M84" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="F84" s="69"/>
-      <c r="G84" s="69"/>
-      <c r="H84" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="I84" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="J84" s="79" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:13" ht="15.75">
       <c r="A85" s="13">
         <v>84</v>
       </c>
@@ -3850,27 +4374,33 @@
         <v>5</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="D85" s="6">
         <v>8406411189</v>
       </c>
       <c r="E85" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F85" s="103"/>
+      <c r="G85" s="103"/>
+      <c r="H85" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="I85" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="J85" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="L85" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="M85" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="F85" s="69"/>
-      <c r="G85" s="69"/>
-      <c r="H85" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="I85" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="J85" s="79" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:13" ht="15.75">
       <c r="A86" s="13">
         <v>85</v>
       </c>
@@ -3878,27 +4408,33 @@
         <v>6</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="D86" s="6">
         <v>5841013490</v>
       </c>
       <c r="E86" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F86" s="103"/>
+      <c r="G86" s="103"/>
+      <c r="H86" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="I86" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="J86" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="L86" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="M86" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="F86" s="69"/>
-      <c r="G86" s="69"/>
-      <c r="H86" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="I86" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="J86" s="79" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:13" ht="15.75">
       <c r="A87" s="13">
         <v>86</v>
       </c>
@@ -3906,27 +4442,33 @@
         <v>7</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="D87" s="6">
         <v>9033378603</v>
       </c>
       <c r="E87" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F87" s="103"/>
+      <c r="G87" s="103"/>
+      <c r="H87" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="I87" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="J87" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="L87" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="M87" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="F87" s="69"/>
-      <c r="G87" s="69"/>
-      <c r="H87" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="I87" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="J87" s="79" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:13" ht="15.75">
       <c r="A88" s="13">
         <v>87</v>
       </c>
@@ -3934,27 +4476,33 @@
         <v>8</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="D88" s="6">
         <v>4402647060</v>
       </c>
       <c r="E88" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F88" s="103"/>
+      <c r="G88" s="103"/>
+      <c r="H88" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="I88" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="J88" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="L88" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="M88" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="F88" s="69"/>
-      <c r="G88" s="69"/>
-      <c r="H88" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="I88" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="J88" s="79" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:13" ht="15.75">
       <c r="A89" s="13">
         <v>88</v>
       </c>
@@ -3962,27 +4510,33 @@
         <v>9</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="D89" s="6">
         <v>7640953323</v>
       </c>
       <c r="E89" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F89" s="103"/>
+      <c r="G89" s="103"/>
+      <c r="H89" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="I89" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="J89" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="L89" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="M89" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="F89" s="69"/>
-      <c r="G89" s="69"/>
-      <c r="H89" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="I89" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="J89" s="79" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:13" ht="15.75">
       <c r="A90" s="13">
         <v>89</v>
       </c>
@@ -3990,29 +4544,35 @@
         <v>10</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="D90" s="6">
         <v>1184446678</v>
       </c>
       <c r="E90" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F90" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="G90" s="103"/>
+      <c r="H90" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="I90" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="J90" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="L90" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="M90" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="F90" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="G90" s="69"/>
-      <c r="H90" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="I90" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="J90" s="79" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:13" ht="15.75">
       <c r="A91" s="13">
         <v>90</v>
       </c>
@@ -4020,29 +4580,35 @@
         <v>11</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="D91" s="6">
         <v>5031001428</v>
       </c>
       <c r="E91" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F91" s="103" t="s">
+        <v>110</v>
+      </c>
+      <c r="G91" s="103"/>
+      <c r="H91" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="I91" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="J91" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="L91" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="M91" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="F91" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="G91" s="69"/>
-      <c r="H91" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="I91" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="J91" s="79" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:13" ht="15.75">
       <c r="A92" s="13">
         <v>91</v>
       </c>
@@ -4050,27 +4616,33 @@
         <v>12</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="D92" s="6">
         <v>8289528689</v>
       </c>
       <c r="E92" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F92" s="103"/>
+      <c r="G92" s="103"/>
+      <c r="H92" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="I92" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="J92" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="L92" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="M92" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="F92" s="69"/>
-      <c r="G92" s="69"/>
-      <c r="H92" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="I92" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="J92" s="79" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:13" ht="15.75">
       <c r="A93" s="13">
         <v>92</v>
       </c>
@@ -4078,27 +4650,33 @@
         <v>13</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="D93" s="6">
         <v>6184915338</v>
       </c>
       <c r="E93" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F93" s="103"/>
+      <c r="G93" s="103"/>
+      <c r="H93" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="I93" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="J93" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="L93" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="M93" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="F93" s="69"/>
-      <c r="G93" s="69"/>
-      <c r="H93" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="I93" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="J93" s="79" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:13" ht="15.75">
       <c r="A94" s="13">
         <v>93</v>
       </c>
@@ -4106,25 +4684,31 @@
         <v>14</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F94" s="103"/>
+      <c r="G94" s="103"/>
+      <c r="H94" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="I94" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="J94" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="L94" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="M94" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="F94" s="69"/>
-      <c r="G94" s="69"/>
-      <c r="H94" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="I94" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="J94" s="79" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:13" ht="15.75">
       <c r="A95" s="13">
         <v>94</v>
       </c>
@@ -4132,25 +4716,31 @@
         <v>15</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F95" s="103"/>
+      <c r="G95" s="103"/>
+      <c r="H95" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="I95" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="J95" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="L95" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="M95" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="F95" s="69"/>
-      <c r="G95" s="69"/>
-      <c r="H95" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="I95" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="J95" s="79" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:13" ht="15.75">
       <c r="A96" s="13">
         <v>95</v>
       </c>
@@ -4158,25 +4748,31 @@
         <v>16</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="D96" s="7"/>
       <c r="E96" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F96" s="103"/>
+      <c r="G96" s="103"/>
+      <c r="H96" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="I96" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="J96" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="L96" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="M96" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="F96" s="69"/>
-      <c r="G96" s="69"/>
-      <c r="H96" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="I96" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="J96" s="79" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:13" ht="15.75">
       <c r="A97" s="13">
         <v>96</v>
       </c>
@@ -4184,55 +4780,67 @@
         <v>17</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="D97" s="7"/>
       <c r="E97" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F97" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="G97" s="103"/>
+      <c r="H97" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="I97" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="J97" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="L97" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="M97" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="F97" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="G97" s="69"/>
-      <c r="H97" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="I97" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="J97" s="79" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:13" ht="15.75">
       <c r="A98" s="13">
         <v>97</v>
       </c>
       <c r="B98" s="17">
         <v>1</v>
       </c>
-      <c r="C98" s="71" t="s">
-        <v>104</v>
+      <c r="C98" s="68" t="s">
+        <v>126</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F98" s="72" t="s">
-        <v>114</v>
-      </c>
-      <c r="G98" s="69"/>
-      <c r="H98" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="I98" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="J98" s="79" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="F98" s="104" t="s">
+        <v>110</v>
+      </c>
+      <c r="G98" s="103"/>
+      <c r="H98" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="I98" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="J98" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="L98" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="M98" s="113" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="15.75">
       <c r="A99" s="13">
         <v>98</v>
       </c>
@@ -4240,25 +4848,31 @@
         <v>2</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F99" s="72"/>
-      <c r="G99" s="69"/>
-      <c r="H99" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="I99" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="J99" s="79" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="F99" s="104"/>
+      <c r="G99" s="103"/>
+      <c r="H99" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="I99" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="J99" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="L99" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="M99" s="113" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="15.75">
       <c r="A100" s="13">
         <v>99</v>
       </c>
@@ -4266,25 +4880,31 @@
         <v>3</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="D100" s="10"/>
       <c r="E100" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F100" s="72"/>
-      <c r="G100" s="69"/>
-      <c r="H100" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="I100" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="J100" s="79" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="F100" s="104"/>
+      <c r="G100" s="103"/>
+      <c r="H100" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="I100" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="J100" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="L100" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="M100" s="113" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="15.75">
       <c r="A101" s="13">
         <v>100</v>
       </c>
@@ -4292,25 +4912,31 @@
         <v>1</v>
       </c>
       <c r="C101" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D101" s="11"/>
+      <c r="E101" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="F101" s="104"/>
+      <c r="G101" s="103"/>
+      <c r="H101" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="I101" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="J101" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="L101" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="D101" s="11"/>
-      <c r="E101" s="73" t="s">
-        <v>110</v>
-      </c>
-      <c r="F101" s="72"/>
-      <c r="G101" s="69"/>
-      <c r="H101" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="I101" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="J101" s="79" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M101" s="113" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="16.5" thickBot="1">
       <c r="A102" s="13">
         <v>101</v>
       </c>
@@ -4318,22 +4944,81 @@
         <v>2</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="D102" s="38"/>
-      <c r="E102" s="80" t="s">
-        <v>110</v>
-      </c>
-      <c r="F102" s="81"/>
-      <c r="G102" s="82"/>
-      <c r="H102" s="83" t="s">
-        <v>120</v>
-      </c>
-      <c r="I102" s="83" t="s">
-        <v>120</v>
-      </c>
-      <c r="J102" s="84" t="s">
-        <v>120</v>
+      <c r="E102" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="F102" s="105"/>
+      <c r="G102" s="107"/>
+      <c r="H102" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="I102" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="J102" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="L102" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="M102" s="113" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="C108" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="B111">
+        <v>3</v>
+      </c>
+      <c r="C111" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="B112">
+        <v>4</v>
+      </c>
+      <c r="C112" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3">
+      <c r="B113">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3">
+      <c r="B114">
+        <v>6</v>
+      </c>
+      <c r="C114" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
